--- a/python_visiaul/owner.xlsx
+++ b/python_visiaul/owner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.174.131\nxf32270\Misc_demo\python_visiaul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.174.132\nxf32270\Misc_demo\python_visiaul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D296A94D-04D8-485F-8D0A-14AE917E121D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6CE07F4-058E-4FF4-995F-CDBEB7CB2A89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="333">
   <si>
     <t>NAME</t>
   </si>
@@ -169,16 +169,25 @@
     <t>Dual_Internal-CM33_FlexSPI0_NOR_SND_8MB_Data_Corrupt-A35_USDHC0_SD</t>
   </si>
   <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_SND_8MB_Data_Corrupt-A35_USDHC0_SD-Encrypted_Boot</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-FWS</t>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-FAB</t>
   </si>
   <si>
     <t>Shockley</t>
   </si>
   <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-FAB</t>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-NXP_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-OEM_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-OEM_OPEN</t>
   </si>
   <si>
     <t>Dual_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD</t>
@@ -217,49 +226,67 @@
     <t>Dual_Internal-CM33_FlexSPI0_NAND_SND_8MB_Data_Corrupt-A35_USDHC0_SD</t>
   </si>
   <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-FWS</t>
-  </si>
-  <si>
     <t>Dual_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-FAB</t>
   </si>
   <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-Field_Return</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD-FWS</t>
+    <t>Dual_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-NXP_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-OEM_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-OEM_OPEN</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_OTFAD-A35_USDHC0_SD</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_OTFAD-A35_USDHC0_SD</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Data_Corrupt-A35_USDHC0_SD</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Hash_Corrupt-A35_USDHC0_SD</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Ctnr_Corrupt-A35_USDHC0_SD</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Set1_Newer-A35_USDHC0_SD</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Set1_Newer_But_Data_Corrupt-A35_USDHC0_SD</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_2MB_Data_Corrupt-A35_USDHC0_SD</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_8MB_Data_Corrupt-A35_USDHC0_SD</t>
   </si>
   <si>
     <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD-FAB</t>
   </si>
   <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_OTFAD-A35_USDHC0_SD</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_OTFAD-A35_USDHC0_SD</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Data_Corrupt-A35_USDHC0_SD</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Hash_Corrupt-A35_USDHC0_SD</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Ctnr_Corrupt-A35_USDHC0_SD</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Set1_Newer-A35_USDHC0_SD</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_4MB_Set1_Newer_But_Data_Corrupt-A35_USDHC0_SD</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_2MB_Data_Corrupt-A35_USDHC0_SD</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP_SND_8MB_Data_Corrupt-A35_USDHC0_SD</t>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD-NXP_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD-OEM_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD-OEM_OPEN</t>
   </si>
   <si>
     <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC44</t>
@@ -316,12 +343,24 @@
     <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC44_8bit_DDR_SND_8MB_Data_Corrupt</t>
   </si>
   <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC44_8bit_DDR-FWS</t>
-  </si>
-  <si>
     <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC44_8bit_DDR-FAB</t>
   </si>
   <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC44_8bit_DDR-NXP_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC44_8bit_DDR-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC44_8bit_DDR-OEM_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC44_8bit_DDR-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC44_8bit_DDR-OEM_OPEN</t>
+  </si>
+  <si>
     <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_eMMC_8bit_DDR_ACK-BT_Part1-SND</t>
   </si>
   <si>
@@ -373,10 +412,22 @@
     <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND</t>
   </si>
   <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND_FWS</t>
-  </si>
-  <si>
-    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND_FAB</t>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND-FAB</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND-NXP_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND-OEM_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND-OEM_OPEN</t>
   </si>
   <si>
     <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND_SND_4MB_Data_Corrupt</t>
@@ -424,13 +475,22 @@
     <t>Single_Internal-FlexSPI2_NAND</t>
   </si>
   <si>
-    <t>Single_Internal-FlexSPI2_NAND-Encrypted_Boot</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NAND_FWS</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NAND_FAB</t>
+    <t>Single_Internal-FlexSPI2_NAND-FAB</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NAND-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NAND-NXP_FR</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NAND-OEM_FR</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NAND-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NAND-OEM_OPEN</t>
   </si>
   <si>
     <t>Single_Internal-FlexSPI2_NAND_SND_4MB_Data_Corrupt</t>
@@ -532,6 +592,9 @@
     <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_FlexSPI2_NAND_Invalid-LPSPI5-CS1_Recovery</t>
   </si>
   <si>
+    <t>Single-A35_SD_Invalid-LPSPI4-CS0_Recovery</t>
+  </si>
+  <si>
     <t>Single_Internal-USDHC0_SD-SDR104</t>
   </si>
   <si>
@@ -565,12 +628,6 @@
     <t>Single_Internal-USDHC2_emmc44-8bit-DDR-High-FB_boot1_ack</t>
   </si>
   <si>
-    <t>Single_Internal-USDHC0_eMMC44_8bit_DDR_FWS</t>
-  </si>
-  <si>
-    <t>Single_Internal-USDHC0_eMMC44_8bit_DDR_FAB</t>
-  </si>
-  <si>
     <t>Single_Internal-USDHC0_eMMC44_8bit_DDR_SND_4MB_Data_Corrupt</t>
   </si>
   <si>
@@ -592,10 +649,22 @@
     <t>Single_Internal-USDHC1_SD</t>
   </si>
   <si>
-    <t>Single_Internal-USDHC1_SD_FWS</t>
-  </si>
-  <si>
-    <t>Single_Internal-USDHC1_SD_FAB</t>
+    <t>Single_Internal-USDHC1_SD-FAB</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-NXP_FR</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-OEM_OPEN</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-OEM_FR</t>
   </si>
   <si>
     <t>Single_Internal-USDHC1_SD_SND_4MB_Data_Corrupt</t>
@@ -616,36 +685,6 @@
     <t>Single_Internal-USDHC1_SD_SND_8MB_Data_Corrupt</t>
   </si>
   <si>
-    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable_FWS</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable_FAB</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NOR_SND_4MB_Data_Corrupt-AZURE_Enable</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NOR_SND_4MB_Hash_Corrupt-AZURE_Enable</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NOR_SND_4MB_Ctnr_Corrupt-AZURE_Enable</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NOR_Set1_Newer-AZURE_Enable</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NOR_2MB_Data_Corrupt-AZURE_Enable</t>
-  </si>
-  <si>
-    <t>Single_Internal-FlexSPI2_NOR_SND_8MB_Data_Corrupt-AZURE_Enable</t>
-  </si>
-  <si>
-    <t>Single_Internal-USDHC2_eMMC44_8bit_DDR_FAB</t>
-  </si>
-  <si>
     <t>Single_Internal-USDHC2_eMMC44_8bit_DDR_SND_4MB_Data_Corrupt</t>
   </si>
   <si>
@@ -688,15 +727,6 @@
     <t>LP_Internal-CM33_FlexSPI0_NOR_SND_8MB_Data_Corrupt-A35_USDHC0_SD</t>
   </si>
   <si>
-    <t>LP_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-FWS</t>
-  </si>
-  <si>
-    <t>LP_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-FAB</t>
-  </si>
-  <si>
-    <t>LP_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-Field_Return</t>
-  </si>
-  <si>
     <t>LP_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD</t>
   </si>
   <si>
@@ -721,15 +751,6 @@
     <t>LP_Internal-CM33_FlexSPI0_NAND_SND_8MB_Data_Corrupt-A35_USDHC0_SD</t>
   </si>
   <si>
-    <t>LP_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-FWS</t>
-  </si>
-  <si>
-    <t>LP_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-FAB</t>
-  </si>
-  <si>
-    <t>LP_Internal-CM33_FlexSPI0_NAND-A35_USDHC0_SD-Field_Return</t>
-  </si>
-  <si>
     <t>LP_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD</t>
   </si>
   <si>
@@ -754,12 +775,6 @@
     <t>LP_Internal-CM33_FlexSPI0_NOR_XIP_SND_8MB_Data_Corrupt-A35_USDHC0_SD</t>
   </si>
   <si>
-    <t>LP_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD-FWS</t>
-  </si>
-  <si>
-    <t>LP_Internal-CM33_FlexSPI0_NOR_XIP-A35_USDHC0_SD-FAB</t>
-  </si>
-  <si>
     <t>LP_Internal-CM33_FlexSPI0_NOR_OTFAD-A35_USDHC0_SD</t>
   </si>
   <si>
@@ -793,25 +808,34 @@
     <t>Serial Download</t>
   </si>
   <si>
+    <t>Serial_Download-USB0-FAB</t>
+  </si>
+  <si>
     <t>Xiaojing</t>
   </si>
   <si>
-    <t>Serial_Download-USB0-FAB</t>
-  </si>
-  <si>
-    <t>Serial_Download-USB0-FWS</t>
+    <t>Serial_Download-USB0-OEM_FR</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-NXP_FR</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-OEM_OPEN</t>
   </si>
   <si>
     <t>Serial_Download-USB0</t>
   </si>
   <si>
-    <t>Serial_Download-USB1-FAB</t>
-  </si>
-  <si>
-    <t>Serial_Download-USB1-FWS</t>
-  </si>
-  <si>
-    <t>Serial_Download-USB1</t>
+    <t>Serial_Download-USB0_EP0</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0_TRIM</t>
   </si>
   <si>
     <t>Boot device unit test</t>
@@ -835,9 +859,6 @@
     <t>UT-FlexSPI0_NOR_Quad_TEST</t>
   </si>
   <si>
-    <t>UT-FlexSPI1_NAND_TEST</t>
-  </si>
-  <si>
     <t>UT-FlexSPI2_NAND_TEST</t>
   </si>
   <si>
@@ -859,13 +880,10 @@
     <t>UT-FlexSPI2_NOR_Quad_TEST</t>
   </si>
   <si>
-    <t>UT-USB-20-HS_test-OTG0</t>
-  </si>
-  <si>
     <t>PLANNED_COVERAGE+S224A2B224:P224</t>
   </si>
   <si>
-    <t>UT-USB-20-HS_test</t>
+    <t>UT-USB0-20-HS_test</t>
   </si>
   <si>
     <t>UT-USDHC0-SDXC</t>
@@ -907,12 +925,12 @@
     <t>MISC-Test_Mode</t>
   </si>
   <si>
+    <t>MISC-TEST_A35_ROM-Patch-Test</t>
+  </si>
+  <si>
     <t>MISC-TEST_M33_ROM-Patch-Test</t>
   </si>
   <si>
-    <t>MISC-TEST_A35_ROM-Patch-Test</t>
-  </si>
-  <si>
     <t>MISC-TEST-SDP-FORCE_INTERNAL_BOOT</t>
   </si>
   <si>
@@ -940,12 +958,6 @@
     <t>MISC-TEST-Resume_APD_DeepPowerDown</t>
   </si>
   <si>
-    <t>FUSE_TEST-A35_DCACHE_DISABLE</t>
-  </si>
-  <si>
-    <t>FUSE_TEST-M33_DCACHE_DISABLE</t>
-  </si>
-  <si>
     <t>FUSE_TEST-A35_ICACHE_DISABLE</t>
   </si>
   <si>
@@ -973,9 +985,6 @@
     <t>FUSE_TEST-DUAL_BOOT-APD_PLLPFD0_DIVCORE1_1G</t>
   </si>
   <si>
-    <t>FUSE_TEST-Serial_Download-DIR_BT_DIS-Single_Boot-USDHC0_EMMC</t>
-  </si>
-  <si>
     <t>FUSE_TEST-DUAL_BOOT-Boot_Failure_Pin</t>
   </si>
   <si>
@@ -998,6 +1007,18 @@
   </si>
   <si>
     <t>FUSE_TEST-Single_Boot-USDHC0_EMMC-S400_Not_Exist</t>
+  </si>
+  <si>
+    <t>FUSE_TEST-DUAL_BOOT-FRO_SC_TRIM</t>
+  </si>
+  <si>
+    <t>FUSE_TEST-DUAL_BOOT-PLL_LOCK_OVERRIDE</t>
+  </si>
+  <si>
+    <t>FUSE_TEST-Serial_Download-USB0_SDP_DISABLE</t>
+  </si>
+  <si>
+    <t>FUSE_TEST-Serial_Download-USB1_SDP_DISABLE_USEUSB0</t>
   </si>
 </sst>
 </file>
@@ -1949,16 +1970,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD288"/>
+  <dimension ref="A1:AD293"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A221" sqref="A221:A254"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="98.875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2290,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X12" t="s">
         <v>37</v>
@@ -2301,7 +2317,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
         <v>33</v>
@@ -2313,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X13" t="s">
         <v>37</v>
@@ -2336,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="W14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X14" t="s">
         <v>37</v>
@@ -2359,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="W15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X15" t="s">
         <v>37</v>
@@ -2370,7 +2386,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>33</v>
@@ -2382,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="W16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X16" t="s">
         <v>37</v>
@@ -2393,7 +2409,7 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -2405,7 +2421,7 @@
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X17" t="s">
         <v>37</v>
@@ -2416,7 +2432,7 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -2428,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X18" t="s">
         <v>37</v>
@@ -2451,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="W19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X19" t="s">
         <v>37</v>
@@ -2474,7 +2490,7 @@
         <v>1</v>
       </c>
       <c r="W20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X20" t="s">
         <v>37</v>
@@ -2497,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X21" t="s">
         <v>37</v>
@@ -2520,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X22" t="s">
         <v>37</v>
@@ -2543,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="W23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X23" t="s">
         <v>37</v>
@@ -2566,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="W24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X24" t="s">
         <v>37</v>
@@ -2589,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X25" t="s">
         <v>37</v>
@@ -2612,7 +2628,7 @@
         <v>1</v>
       </c>
       <c r="W26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X26" t="s">
         <v>37</v>
@@ -2635,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="W27" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X27" t="s">
         <v>37</v>
@@ -2658,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="W28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X28" t="s">
         <v>37</v>
@@ -2681,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="W29" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X29" t="s">
         <v>37</v>
@@ -2704,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="W30" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X30" t="s">
         <v>37</v>
@@ -2727,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="W31" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X31" t="s">
         <v>37</v>
@@ -2750,7 +2766,7 @@
         <v>1</v>
       </c>
       <c r="W32" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X32" t="s">
         <v>37</v>
@@ -2773,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="W33" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X33" t="s">
         <v>37</v>
@@ -2796,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="W34" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X34" t="s">
         <v>37</v>
@@ -2819,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="W35" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X35" t="s">
         <v>37</v>
@@ -2842,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X36" t="s">
         <v>37</v>
@@ -2865,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="W37" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X37" t="s">
         <v>37</v>
@@ -2888,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="W38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X38" t="s">
         <v>37</v>
@@ -2911,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="W39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X39" t="s">
         <v>37</v>
@@ -2934,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="W40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X40" t="s">
         <v>37</v>
@@ -2945,7 +2961,7 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
@@ -2957,7 +2973,7 @@
         <v>1</v>
       </c>
       <c r="W41" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X41" t="s">
         <v>37</v>
@@ -2968,7 +2984,7 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
         <v>33</v>
@@ -2980,7 +2996,7 @@
         <v>1</v>
       </c>
       <c r="W42" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X42" t="s">
         <v>37</v>
@@ -2991,7 +3007,7 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B43" t="s">
         <v>33</v>
@@ -3003,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="W43" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X43" t="s">
         <v>37</v>
@@ -3014,7 +3030,7 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B44" t="s">
         <v>33</v>
@@ -3026,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="W44" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X44" t="s">
         <v>37</v>
@@ -3037,7 +3053,7 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
         <v>33</v>
@@ -3049,7 +3065,7 @@
         <v>1</v>
       </c>
       <c r="W45" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X45" t="s">
         <v>37</v>
@@ -3060,7 +3076,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B46" t="s">
         <v>33</v>
@@ -3072,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="W46" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X46" t="s">
         <v>37</v>
@@ -3083,7 +3099,7 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
         <v>33</v>
@@ -3095,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="W47" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X47" t="s">
         <v>37</v>
@@ -3106,7 +3122,7 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
         <v>33</v>
@@ -3118,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="W48" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X48" t="s">
         <v>37</v>
@@ -3129,7 +3145,7 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
         <v>33</v>
@@ -3141,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="W49" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X49" t="s">
         <v>37</v>
@@ -3152,7 +3168,7 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
         <v>33</v>
@@ -3164,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="W50" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X50" t="s">
         <v>37</v>
@@ -3175,7 +3191,7 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B51" t="s">
         <v>33</v>
@@ -3187,7 +3203,7 @@
         <v>1</v>
       </c>
       <c r="W51" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X51" t="s">
         <v>37</v>
@@ -3198,7 +3214,7 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
         <v>33</v>
@@ -3210,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="W52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X52" t="s">
         <v>37</v>
@@ -3221,7 +3237,7 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
         <v>33</v>
@@ -3233,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="W53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X53" t="s">
         <v>37</v>
@@ -3244,7 +3260,7 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
         <v>33</v>
@@ -3256,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="W54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X54" t="s">
         <v>37</v>
@@ -3267,7 +3283,7 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
         <v>33</v>
@@ -3279,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X55" t="s">
         <v>37</v>
@@ -3290,7 +3306,7 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
         <v>33</v>
@@ -3302,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="W56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X56" t="s">
         <v>37</v>
@@ -3313,7 +3329,7 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
         <v>33</v>
@@ -3325,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="W57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X57" t="s">
         <v>37</v>
@@ -3336,7 +3352,7 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B58" t="s">
         <v>33</v>
@@ -3348,7 +3364,7 @@
         <v>1</v>
       </c>
       <c r="W58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X58" t="s">
         <v>37</v>
@@ -3359,7 +3375,7 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
         <v>33</v>
@@ -3371,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="W59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X59" t="s">
         <v>37</v>
@@ -3382,7 +3398,7 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
         <v>33</v>
@@ -3394,7 +3410,7 @@
         <v>1</v>
       </c>
       <c r="W60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X60" t="s">
         <v>37</v>
@@ -3405,7 +3421,7 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
         <v>33</v>
@@ -3417,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="W61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X61" t="s">
         <v>37</v>
@@ -3428,7 +3444,7 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
         <v>33</v>
@@ -3440,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="W62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X62" t="s">
         <v>37</v>
@@ -3451,7 +3467,7 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
         <v>33</v>
@@ -3463,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="W63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X63" t="s">
         <v>37</v>
@@ -3474,7 +3490,7 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
         <v>33</v>
@@ -3486,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="W64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X64" t="s">
         <v>37</v>
@@ -3497,7 +3513,7 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" t="s">
         <v>33</v>
@@ -3509,7 +3525,7 @@
         <v>1</v>
       </c>
       <c r="W65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X65" t="s">
         <v>37</v>
@@ -3520,7 +3536,7 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
         <v>33</v>
@@ -3532,7 +3548,7 @@
         <v>1</v>
       </c>
       <c r="W66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X66" t="s">
         <v>37</v>
@@ -3543,7 +3559,7 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" t="s">
         <v>33</v>
@@ -3555,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="W67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X67" t="s">
         <v>37</v>
@@ -3566,7 +3582,7 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
         <v>33</v>
@@ -3578,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="W68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X68" t="s">
         <v>37</v>
@@ -3589,7 +3605,7 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
         <v>33</v>
@@ -3601,7 +3617,7 @@
         <v>1</v>
       </c>
       <c r="W69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X69" t="s">
         <v>37</v>
@@ -3612,7 +3628,7 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
         <v>33</v>
@@ -3624,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="W70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X70" t="s">
         <v>37</v>
@@ -3635,7 +3651,7 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
         <v>33</v>
@@ -3647,7 +3663,7 @@
         <v>1</v>
       </c>
       <c r="W71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X71" t="s">
         <v>37</v>
@@ -3658,7 +3674,7 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
         <v>33</v>
@@ -3670,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="W72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X72" t="s">
         <v>37</v>
@@ -3681,7 +3697,7 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B73" t="s">
         <v>33</v>
@@ -3693,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="W73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X73" t="s">
         <v>37</v>
@@ -3704,7 +3720,7 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
         <v>33</v>
@@ -3716,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="W74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X74" t="s">
         <v>37</v>
@@ -3727,7 +3743,7 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
         <v>33</v>
@@ -3739,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="W75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X75" t="s">
         <v>37</v>
@@ -3750,7 +3766,7 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" t="s">
         <v>33</v>
@@ -3762,7 +3778,7 @@
         <v>1</v>
       </c>
       <c r="W76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X76" t="s">
         <v>37</v>
@@ -3773,7 +3789,7 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B77" t="s">
         <v>33</v>
@@ -3785,7 +3801,7 @@
         <v>1</v>
       </c>
       <c r="W77" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X77" t="s">
         <v>37</v>
@@ -3796,7 +3812,7 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
         <v>33</v>
@@ -3808,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="W78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X78" t="s">
         <v>37</v>
@@ -3819,7 +3835,7 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
         <v>33</v>
@@ -3831,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="W79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X79" t="s">
         <v>37</v>
@@ -3842,7 +3858,7 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
         <v>33</v>
@@ -3854,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="W80" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X80" t="s">
         <v>37</v>
@@ -3865,7 +3881,7 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B81" t="s">
         <v>33</v>
@@ -3877,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="W81" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X81" t="s">
         <v>37</v>
@@ -3888,7 +3904,7 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
         <v>33</v>
@@ -3900,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="W82" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X82" t="s">
         <v>37</v>
@@ -3911,7 +3927,7 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
         <v>33</v>
@@ -3923,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="W83" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X83" t="s">
         <v>37</v>
@@ -3934,7 +3950,7 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
         <v>33</v>
@@ -3946,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="W84" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X84" t="s">
         <v>37</v>
@@ -3957,7 +3973,7 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
         <v>33</v>
@@ -3969,7 +3985,7 @@
         <v>1</v>
       </c>
       <c r="W85" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X85" t="s">
         <v>37</v>
@@ -3980,7 +3996,7 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
         <v>33</v>
@@ -3992,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="W86" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X86" t="s">
         <v>37</v>
@@ -4003,7 +4019,7 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
         <v>33</v>
@@ -4015,7 +4031,7 @@
         <v>1</v>
       </c>
       <c r="W87" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X87" t="s">
         <v>37</v>
@@ -4026,7 +4042,7 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
         <v>33</v>
@@ -4038,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="W88" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X88" t="s">
         <v>37</v>
@@ -4049,7 +4065,7 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
         <v>33</v>
@@ -4061,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="W89" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X89" t="s">
         <v>37</v>
@@ -4072,7 +4088,7 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
         <v>33</v>
@@ -4084,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="W90" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X90" t="s">
         <v>37</v>
@@ -4095,7 +4111,7 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
         <v>33</v>
@@ -4107,7 +4123,7 @@
         <v>1</v>
       </c>
       <c r="W91" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X91" t="s">
         <v>37</v>
@@ -4118,7 +4134,7 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
         <v>33</v>
@@ -4130,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="W92" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X92" t="s">
         <v>37</v>
@@ -4141,7 +4157,7 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
         <v>33</v>
@@ -4153,7 +4169,7 @@
         <v>1</v>
       </c>
       <c r="W93" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X93" t="s">
         <v>37</v>
@@ -4164,7 +4180,7 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
         <v>33</v>
@@ -4176,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="W94" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X94" t="s">
         <v>37</v>
@@ -4187,7 +4203,7 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
         <v>33</v>
@@ -4199,7 +4215,7 @@
         <v>1</v>
       </c>
       <c r="W95" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X95" t="s">
         <v>37</v>
@@ -4210,7 +4226,7 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
         <v>33</v>
@@ -4222,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="W96" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X96" t="s">
         <v>37</v>
@@ -4233,7 +4249,7 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
         <v>33</v>
@@ -4245,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="W97" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X97" t="s">
         <v>37</v>
@@ -4256,7 +4272,7 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
         <v>33</v>
@@ -4268,7 +4284,7 @@
         <v>1</v>
       </c>
       <c r="W98" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X98" t="s">
         <v>37</v>
@@ -4279,7 +4295,7 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
         <v>33</v>
@@ -4291,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="W99" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X99" t="s">
         <v>37</v>
@@ -4302,7 +4318,7 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
         <v>33</v>
@@ -4314,7 +4330,7 @@
         <v>1</v>
       </c>
       <c r="W100" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X100" t="s">
         <v>37</v>
@@ -4325,7 +4341,7 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
         <v>33</v>
@@ -4337,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="W101" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X101" t="s">
         <v>37</v>
@@ -4348,7 +4364,7 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
         <v>33</v>
@@ -4360,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="W102" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X102" t="s">
         <v>37</v>
@@ -4371,7 +4387,7 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
         <v>33</v>
@@ -4383,7 +4399,7 @@
         <v>1</v>
       </c>
       <c r="W103" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X103" t="s">
         <v>37</v>
@@ -4394,7 +4410,7 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
         <v>33</v>
@@ -4406,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="W104" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X104" t="s">
         <v>37</v>
@@ -4417,7 +4433,7 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B105" t="s">
         <v>33</v>
@@ -4429,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="W105" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X105" t="s">
         <v>37</v>
@@ -4440,7 +4456,7 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
         <v>33</v>
@@ -4452,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="W106" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X106" t="s">
         <v>37</v>
@@ -4463,7 +4479,7 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s">
         <v>33</v>
@@ -4475,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="W107" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X107" t="s">
         <v>37</v>
@@ -4486,7 +4502,7 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
         <v>33</v>
@@ -4498,7 +4514,7 @@
         <v>1</v>
       </c>
       <c r="W108" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X108" t="s">
         <v>37</v>
@@ -4509,7 +4525,7 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
         <v>33</v>
@@ -4521,7 +4537,7 @@
         <v>1</v>
       </c>
       <c r="W109" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X109" t="s">
         <v>37</v>
@@ -4532,7 +4548,7 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
         <v>33</v>
@@ -4544,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="W110" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X110" t="s">
         <v>37</v>
@@ -4555,7 +4571,7 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B111" t="s">
         <v>33</v>
@@ -4567,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="W111" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X111" t="s">
         <v>37</v>
@@ -4578,7 +4594,7 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s">
         <v>33</v>
@@ -4590,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="W112" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X112" t="s">
         <v>37</v>
@@ -4601,7 +4617,7 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B113" t="s">
         <v>33</v>
@@ -4613,7 +4629,7 @@
         <v>1</v>
       </c>
       <c r="W113" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X113" t="s">
         <v>37</v>
@@ -4624,7 +4640,7 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
         <v>33</v>
@@ -4636,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="W114" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X114" t="s">
         <v>37</v>
@@ -4647,7 +4663,7 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
         <v>33</v>
@@ -4659,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="W115" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X115" t="s">
         <v>37</v>
@@ -4670,7 +4686,7 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B116" t="s">
         <v>33</v>
@@ -4682,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="W116" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X116" t="s">
         <v>37</v>
@@ -4693,7 +4709,7 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B117" t="s">
         <v>33</v>
@@ -4705,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="W117" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X117" t="s">
         <v>37</v>
@@ -4716,7 +4732,7 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B118" t="s">
         <v>33</v>
@@ -4728,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="W118" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X118" t="s">
         <v>37</v>
@@ -4739,7 +4755,7 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B119" t="s">
         <v>33</v>
@@ -4751,7 +4767,7 @@
         <v>1</v>
       </c>
       <c r="W119" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X119" t="s">
         <v>37</v>
@@ -4762,7 +4778,7 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B120" t="s">
         <v>33</v>
@@ -4774,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="W120" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X120" t="s">
         <v>37</v>
@@ -4785,7 +4801,7 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B121" t="s">
         <v>33</v>
@@ -4797,7 +4813,7 @@
         <v>1</v>
       </c>
       <c r="W121" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X121" t="s">
         <v>37</v>
@@ -4808,7 +4824,7 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B122" t="s">
         <v>33</v>
@@ -4820,7 +4836,7 @@
         <v>1</v>
       </c>
       <c r="W122" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X122" t="s">
         <v>37</v>
@@ -4831,7 +4847,7 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
         <v>33</v>
@@ -4843,7 +4859,7 @@
         <v>1</v>
       </c>
       <c r="W123" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X123" t="s">
         <v>37</v>
@@ -4854,7 +4870,7 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
         <v>33</v>
@@ -4866,7 +4882,7 @@
         <v>1</v>
       </c>
       <c r="W124" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X124" t="s">
         <v>37</v>
@@ -4877,7 +4893,7 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B125" t="s">
         <v>33</v>
@@ -4889,7 +4905,7 @@
         <v>1</v>
       </c>
       <c r="W125" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X125" t="s">
         <v>37</v>
@@ -4900,7 +4916,7 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
         <v>33</v>
@@ -4912,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="W126" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X126" t="s">
         <v>37</v>
@@ -4923,7 +4939,7 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
         <v>33</v>
@@ -4935,7 +4951,7 @@
         <v>1</v>
       </c>
       <c r="W127" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X127" t="s">
         <v>37</v>
@@ -4946,7 +4962,7 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B128" t="s">
         <v>33</v>
@@ -4958,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="W128" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X128" t="s">
         <v>37</v>
@@ -4969,7 +4985,7 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B129" t="s">
         <v>33</v>
@@ -4981,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="W129" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X129" t="s">
         <v>37</v>
@@ -4992,7 +5008,7 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B130" t="s">
         <v>33</v>
@@ -5004,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="W130" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X130" t="s">
         <v>37</v>
@@ -5015,7 +5031,7 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B131" t="s">
         <v>33</v>
@@ -5027,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="W131" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X131" t="s">
         <v>37</v>
@@ -5038,7 +5054,7 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B132" t="s">
         <v>33</v>
@@ -5050,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="W132" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X132" t="s">
         <v>37</v>
@@ -5061,7 +5077,7 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B133" t="s">
         <v>33</v>
@@ -5073,7 +5089,7 @@
         <v>1</v>
       </c>
       <c r="W133" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X133" t="s">
         <v>37</v>
@@ -5084,7 +5100,7 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B134" t="s">
         <v>33</v>
@@ -5096,7 +5112,7 @@
         <v>1</v>
       </c>
       <c r="W134" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X134" t="s">
         <v>37</v>
@@ -5107,7 +5123,7 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B135" t="s">
         <v>33</v>
@@ -5119,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="W135" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X135" t="s">
         <v>37</v>
@@ -5130,7 +5146,7 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B136" t="s">
         <v>33</v>
@@ -5142,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="W136" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X136" t="s">
         <v>37</v>
@@ -5153,7 +5169,7 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B137" t="s">
         <v>33</v>
@@ -5165,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="W137" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X137" t="s">
         <v>37</v>
@@ -5176,7 +5192,7 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B138" t="s">
         <v>33</v>
@@ -5188,7 +5204,7 @@
         <v>1</v>
       </c>
       <c r="W138" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X138" t="s">
         <v>37</v>
@@ -5199,7 +5215,7 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B139" t="s">
         <v>33</v>
@@ -5211,7 +5227,7 @@
         <v>1</v>
       </c>
       <c r="W139" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X139" t="s">
         <v>37</v>
@@ -5222,7 +5238,7 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B140" t="s">
         <v>33</v>
@@ -5234,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="W140" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X140" t="s">
         <v>37</v>
@@ -5245,7 +5261,7 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B141" t="s">
         <v>33</v>
@@ -5257,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="W141" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X141" t="s">
         <v>37</v>
@@ -5268,7 +5284,7 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B142" t="s">
         <v>33</v>
@@ -5280,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="W142" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X142" t="s">
         <v>37</v>
@@ -5291,7 +5307,7 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B143" t="s">
         <v>33</v>
@@ -5303,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="W143" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X143" t="s">
         <v>37</v>
@@ -5314,7 +5330,7 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B144" t="s">
         <v>33</v>
@@ -5326,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="W144" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X144" t="s">
         <v>37</v>
@@ -5337,7 +5353,7 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B145" t="s">
         <v>33</v>
@@ -5349,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="W145" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X145" t="s">
         <v>37</v>
@@ -5360,7 +5376,7 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B146" t="s">
         <v>33</v>
@@ -5372,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="W146" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X146" t="s">
         <v>37</v>
@@ -5383,7 +5399,7 @@
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B147" t="s">
         <v>33</v>
@@ -5395,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="W147" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X147" t="s">
         <v>37</v>
@@ -5406,7 +5422,7 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B148" t="s">
         <v>33</v>
@@ -5418,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="W148" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X148" t="s">
         <v>37</v>
@@ -5429,7 +5445,7 @@
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B149" t="s">
         <v>33</v>
@@ -5441,7 +5457,7 @@
         <v>1</v>
       </c>
       <c r="W149" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X149" t="s">
         <v>37</v>
@@ -5452,7 +5468,7 @@
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B150" t="s">
         <v>33</v>
@@ -5464,7 +5480,7 @@
         <v>1</v>
       </c>
       <c r="W150" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X150" t="s">
         <v>37</v>
@@ -5475,7 +5491,7 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B151" t="s">
         <v>33</v>
@@ -5487,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="W151" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X151" t="s">
         <v>37</v>
@@ -5498,7 +5514,7 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B152" t="s">
         <v>33</v>
@@ -5510,7 +5526,7 @@
         <v>1</v>
       </c>
       <c r="W152" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X152" t="s">
         <v>37</v>
@@ -5521,7 +5537,7 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B153" t="s">
         <v>33</v>
@@ -5533,7 +5549,7 @@
         <v>1</v>
       </c>
       <c r="W153" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="X153" t="s">
         <v>37</v>
@@ -5544,7 +5560,7 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B154" t="s">
         <v>33</v>
@@ -5556,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="W154" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X154" t="s">
         <v>37</v>
@@ -5567,7 +5583,7 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B155" t="s">
         <v>33</v>
@@ -5579,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="W155" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X155" t="s">
         <v>37</v>
@@ -5590,7 +5606,7 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B156" t="s">
         <v>33</v>
@@ -5602,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="W156" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X156" t="s">
         <v>37</v>
@@ -5613,7 +5629,7 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B157" t="s">
         <v>33</v>
@@ -5625,7 +5641,7 @@
         <v>1</v>
       </c>
       <c r="W157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X157" t="s">
         <v>37</v>
@@ -5636,7 +5652,7 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B158" t="s">
         <v>33</v>
@@ -5648,7 +5664,7 @@
         <v>1</v>
       </c>
       <c r="W158" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X158" t="s">
         <v>37</v>
@@ -5659,7 +5675,7 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B159" t="s">
         <v>33</v>
@@ -5671,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="W159" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X159" t="s">
         <v>37</v>
@@ -5682,7 +5698,7 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B160" t="s">
         <v>33</v>
@@ -5694,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="W160" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X160" t="s">
         <v>37</v>
@@ -5705,7 +5721,7 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B161" t="s">
         <v>33</v>
@@ -5717,7 +5733,7 @@
         <v>1</v>
       </c>
       <c r="W161" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X161" t="s">
         <v>37</v>
@@ -5728,7 +5744,7 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B162" t="s">
         <v>33</v>
@@ -5740,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="W162" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X162" t="s">
         <v>37</v>
@@ -5751,7 +5767,7 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B163" t="s">
         <v>33</v>
@@ -5763,7 +5779,7 @@
         <v>1</v>
       </c>
       <c r="W163" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X163" t="s">
         <v>37</v>
@@ -5774,7 +5790,7 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B164" t="s">
         <v>33</v>
@@ -5786,7 +5802,7 @@
         <v>1</v>
       </c>
       <c r="W164" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X164" t="s">
         <v>37</v>
@@ -5797,7 +5813,7 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B165" t="s">
         <v>33</v>
@@ -5809,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="W165" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X165" t="s">
         <v>37</v>
@@ -5820,7 +5836,7 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B166" t="s">
         <v>33</v>
@@ -5832,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="W166" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X166" t="s">
         <v>37</v>
@@ -5843,7 +5859,7 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B167" t="s">
         <v>33</v>
@@ -5855,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="W167" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X167" t="s">
         <v>37</v>
@@ -5866,7 +5882,7 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B168" t="s">
         <v>33</v>
@@ -5878,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="W168" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X168" t="s">
         <v>37</v>
@@ -5889,7 +5905,7 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B169" t="s">
         <v>33</v>
@@ -5901,7 +5917,7 @@
         <v>1</v>
       </c>
       <c r="W169" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X169" t="s">
         <v>37</v>
@@ -5912,7 +5928,7 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B170" t="s">
         <v>33</v>
@@ -5924,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="W170" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X170" t="s">
         <v>37</v>
@@ -5935,7 +5951,7 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B171" t="s">
         <v>33</v>
@@ -5947,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="W171" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X171" t="s">
         <v>37</v>
@@ -5958,7 +5974,7 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B172" t="s">
         <v>33</v>
@@ -5970,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="W172" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X172" t="s">
         <v>37</v>
@@ -5981,7 +5997,7 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B173" t="s">
         <v>33</v>
@@ -5993,7 +6009,7 @@
         <v>1</v>
       </c>
       <c r="W173" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X173" t="s">
         <v>37</v>
@@ -6004,7 +6020,7 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B174" t="s">
         <v>33</v>
@@ -6016,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="W174" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X174" t="s">
         <v>37</v>
@@ -6027,7 +6043,7 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B175" t="s">
         <v>33</v>
@@ -6039,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="W175" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X175" t="s">
         <v>37</v>
@@ -6050,7 +6066,7 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B176" t="s">
         <v>33</v>
@@ -6062,7 +6078,7 @@
         <v>1</v>
       </c>
       <c r="W176" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X176" t="s">
         <v>37</v>
@@ -6073,7 +6089,7 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B177" t="s">
         <v>33</v>
@@ -6085,7 +6101,7 @@
         <v>1</v>
       </c>
       <c r="W177" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X177" t="s">
         <v>37</v>
@@ -6096,7 +6112,7 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B178" t="s">
         <v>33</v>
@@ -6108,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="W178" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X178" t="s">
         <v>37</v>
@@ -6119,7 +6135,7 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B179" t="s">
         <v>33</v>
@@ -6131,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="W179" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X179" t="s">
         <v>37</v>
@@ -6142,7 +6158,7 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B180" t="s">
         <v>33</v>
@@ -6154,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="W180" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X180" t="s">
         <v>37</v>
@@ -6165,7 +6181,7 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B181" t="s">
         <v>33</v>
@@ -6177,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="W181" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X181" t="s">
         <v>37</v>
@@ -6188,7 +6204,7 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B182" t="s">
         <v>33</v>
@@ -6200,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="W182" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X182" t="s">
         <v>37</v>
@@ -6211,7 +6227,7 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B183" t="s">
         <v>33</v>
@@ -6234,7 +6250,7 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B184" t="s">
         <v>33</v>
@@ -6246,7 +6262,7 @@
         <v>1</v>
       </c>
       <c r="W184" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X184" t="s">
         <v>37</v>
@@ -6257,7 +6273,7 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B185" t="s">
         <v>33</v>
@@ -6269,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="W185" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X185" t="s">
         <v>37</v>
@@ -6280,7 +6296,7 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B186" t="s">
         <v>33</v>
@@ -6292,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="W186" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X186" t="s">
         <v>37</v>
@@ -6303,7 +6319,7 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B187" t="s">
         <v>33</v>
@@ -6315,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="W187" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X187" t="s">
         <v>37</v>
@@ -6326,7 +6342,7 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B188" t="s">
         <v>33</v>
@@ -6338,7 +6354,7 @@
         <v>1</v>
       </c>
       <c r="W188" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X188" t="s">
         <v>37</v>
@@ -6349,7 +6365,7 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B189" t="s">
         <v>33</v>
@@ -6372,7 +6388,7 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B190" t="s">
         <v>33</v>
@@ -6384,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="W190" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X190" t="s">
         <v>37</v>
@@ -6395,7 +6411,7 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B191" t="s">
         <v>33</v>
@@ -6407,7 +6423,7 @@
         <v>1</v>
       </c>
       <c r="W191" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X191" t="s">
         <v>37</v>
@@ -6418,7 +6434,7 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B192" t="s">
         <v>33</v>
@@ -6430,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="W192" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X192" t="s">
         <v>37</v>
@@ -6441,7 +6457,7 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B193" t="s">
         <v>33</v>
@@ -6453,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="W193" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X193" t="s">
         <v>37</v>
@@ -6464,7 +6480,7 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B194" t="s">
         <v>33</v>
@@ -6476,7 +6492,7 @@
         <v>1</v>
       </c>
       <c r="W194" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X194" t="s">
         <v>37</v>
@@ -6487,7 +6503,7 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B195" t="s">
         <v>33</v>
@@ -6499,7 +6515,7 @@
         <v>1</v>
       </c>
       <c r="W195" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X195" t="s">
         <v>37</v>
@@ -6510,7 +6526,7 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B196" t="s">
         <v>33</v>
@@ -6522,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="W196" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X196" t="s">
         <v>37</v>
@@ -6533,7 +6549,7 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B197" t="s">
         <v>33</v>
@@ -6545,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="W197" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X197" t="s">
         <v>37</v>
@@ -6556,7 +6572,7 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B198" t="s">
         <v>33</v>
@@ -6568,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="W198" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X198" t="s">
         <v>37</v>
@@ -6579,7 +6595,7 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B199" t="s">
         <v>33</v>
@@ -6591,7 +6607,7 @@
         <v>1</v>
       </c>
       <c r="W199" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X199" t="s">
         <v>37</v>
@@ -6602,7 +6618,7 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B200" t="s">
         <v>33</v>
@@ -6614,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="W200" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="X200" t="s">
         <v>37</v>
@@ -6625,7 +6641,7 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B201" t="s">
         <v>33</v>
@@ -6637,7 +6653,7 @@
         <v>1</v>
       </c>
       <c r="W201" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X201" t="s">
         <v>37</v>
@@ -6648,7 +6664,7 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B202" t="s">
         <v>33</v>
@@ -6660,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="W202" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X202" t="s">
         <v>37</v>
@@ -6671,7 +6687,7 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B203" t="s">
         <v>33</v>
@@ -6683,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="W203" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X203" t="s">
         <v>37</v>
@@ -6694,7 +6710,7 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B204" t="s">
         <v>33</v>
@@ -6706,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="W204" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X204" t="s">
         <v>37</v>
@@ -6717,7 +6733,7 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B205" t="s">
         <v>33</v>
@@ -6729,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="W205" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X205" t="s">
         <v>37</v>
@@ -6740,7 +6756,7 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B206" t="s">
         <v>33</v>
@@ -6763,7 +6779,7 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B207" t="s">
         <v>33</v>
@@ -6786,7 +6802,7 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B208" t="s">
         <v>33</v>
@@ -6809,7 +6825,7 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B209" t="s">
         <v>33</v>
@@ -6832,7 +6848,7 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B210" t="s">
         <v>33</v>
@@ -6855,7 +6871,7 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B211" t="s">
         <v>33</v>
@@ -6878,7 +6894,7 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B212" t="s">
         <v>33</v>
@@ -6901,7 +6917,7 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B213" t="s">
         <v>33</v>
@@ -6924,7 +6940,7 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B214" t="s">
         <v>33</v>
@@ -6947,18 +6963,30 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B215" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E215" t="s">
+        <v>35</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
       </c>
       <c r="W215" t="s">
         <v>36</v>
       </c>
+      <c r="X215" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B216" t="s">
         <v>33</v>
@@ -6970,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="W216" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X216" t="s">
         <v>37</v>
@@ -6981,7 +7009,7 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B217" t="s">
         <v>33</v>
@@ -6993,7 +7021,7 @@
         <v>1</v>
       </c>
       <c r="W217" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X217" t="s">
         <v>37</v>
@@ -7004,30 +7032,15 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B218" t="s">
-        <v>33</v>
-      </c>
-      <c r="E218" t="s">
-        <v>35</v>
-      </c>
-      <c r="M218">
-        <v>1</v>
-      </c>
-      <c r="W218" t="s">
-        <v>51</v>
-      </c>
-      <c r="X218" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y218" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B219" t="s">
         <v>33</v>
@@ -7039,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="W219" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X219" t="s">
         <v>37</v>
@@ -7050,7 +7063,7 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B220" t="s">
         <v>33</v>
@@ -7062,7 +7075,7 @@
         <v>1</v>
       </c>
       <c r="W220" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X220" t="s">
         <v>37</v>
@@ -7073,18 +7086,30 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E221" t="s">
+        <v>35</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
       </c>
       <c r="W221" t="s">
-        <v>257</v>
+        <v>50</v>
+      </c>
+      <c r="X221" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B222" t="s">
         <v>33</v>
@@ -7096,7 +7121,7 @@
         <v>1</v>
       </c>
       <c r="W222" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="X222" t="s">
         <v>37</v>
@@ -7107,7 +7132,7 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B223" t="s">
         <v>33</v>
@@ -7119,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="W223" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="X223" t="s">
         <v>37</v>
@@ -7130,30 +7155,15 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B224" t="s">
-        <v>33</v>
-      </c>
-      <c r="E224" t="s">
-        <v>35</v>
-      </c>
-      <c r="M224">
-        <v>1</v>
-      </c>
-      <c r="W224" t="s">
-        <v>257</v>
-      </c>
-      <c r="X224" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y224" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B225" t="s">
         <v>33</v>
@@ -7165,7 +7175,7 @@
         <v>1</v>
       </c>
       <c r="W225" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="X225" t="s">
         <v>37</v>
@@ -7176,7 +7186,7 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B226" t="s">
         <v>33</v>
@@ -7188,7 +7198,7 @@
         <v>1</v>
       </c>
       <c r="W226" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="X226" t="s">
         <v>37</v>
@@ -7199,19 +7209,19 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>265</v>
+      </c>
+      <c r="B227" t="s">
+        <v>33</v>
+      </c>
+      <c r="E227" t="s">
+        <v>35</v>
+      </c>
+      <c r="M227">
+        <v>1</v>
+      </c>
+      <c r="W227" t="s">
         <v>263</v>
-      </c>
-      <c r="B227" t="s">
-        <v>33</v>
-      </c>
-      <c r="E227" t="s">
-        <v>35</v>
-      </c>
-      <c r="M227">
-        <v>1</v>
-      </c>
-      <c r="W227" t="s">
-        <v>257</v>
       </c>
       <c r="X227" t="s">
         <v>37</v>
@@ -7222,15 +7232,30 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B228" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E228" t="s">
+        <v>35</v>
+      </c>
+      <c r="M228">
+        <v>1</v>
+      </c>
+      <c r="W228" t="s">
+        <v>263</v>
+      </c>
+      <c r="X228" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B229" t="s">
         <v>33</v>
@@ -7242,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="W229" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="X229" t="s">
         <v>37</v>
@@ -7253,7 +7278,7 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B230" t="s">
         <v>33</v>
@@ -7265,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="W230" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="X230" t="s">
         <v>37</v>
@@ -7276,7 +7301,7 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B231" t="s">
         <v>33</v>
@@ -7288,7 +7313,7 @@
         <v>1</v>
       </c>
       <c r="W231" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="X231" t="s">
         <v>37</v>
@@ -7299,7 +7324,7 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B232" t="s">
         <v>33</v>
@@ -7311,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="W232" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="X232" t="s">
         <v>37</v>
@@ -7322,7 +7347,7 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B233" t="s">
         <v>33</v>
@@ -7334,7 +7359,7 @@
         <v>1</v>
       </c>
       <c r="W233" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="X233" t="s">
         <v>37</v>
@@ -7345,30 +7370,15 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B234" t="s">
-        <v>33</v>
-      </c>
-      <c r="E234" t="s">
-        <v>35</v>
-      </c>
-      <c r="M234">
-        <v>1</v>
-      </c>
-      <c r="W234" t="s">
-        <v>36</v>
-      </c>
-      <c r="X234" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y234" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B235" t="s">
         <v>33</v>
@@ -7380,7 +7390,7 @@
         <v>1</v>
       </c>
       <c r="W235" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X235" t="s">
         <v>37</v>
@@ -7391,7 +7401,7 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B236" t="s">
         <v>33</v>
@@ -7403,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="W236" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="X236" t="s">
         <v>37</v>
@@ -7414,7 +7424,7 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B237" t="s">
         <v>33</v>
@@ -7437,7 +7447,7 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B238" t="s">
         <v>33</v>
@@ -7460,7 +7470,7 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B239" t="s">
         <v>33</v>
@@ -7483,7 +7493,7 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B240" t="s">
         <v>33</v>
@@ -7495,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="W240" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X240" t="s">
         <v>37</v>
@@ -7506,7 +7516,7 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B241" t="s">
         <v>33</v>
@@ -7529,7 +7539,7 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B242" t="s">
         <v>33</v>
@@ -7552,10 +7562,10 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B243" t="s">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="E243" t="s">
         <v>35</v>
@@ -7564,7 +7574,7 @@
         <v>1</v>
       </c>
       <c r="W243" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="X243" t="s">
         <v>37</v>
@@ -7575,10 +7585,10 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B244" t="s">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="E244" t="s">
         <v>35</v>
@@ -7587,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="W244" t="s">
-        <v>257</v>
+        <v>36</v>
       </c>
       <c r="X244" t="s">
         <v>37</v>
@@ -7598,7 +7608,7 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B245" t="s">
         <v>33</v>
@@ -7610,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="W245" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X245" t="s">
         <v>37</v>
@@ -7621,7 +7631,7 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B246" t="s">
         <v>33</v>
@@ -7633,7 +7643,7 @@
         <v>1</v>
       </c>
       <c r="W246" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="X246" t="s">
         <v>37</v>
@@ -7644,10 +7654,10 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B247" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="E247" t="s">
         <v>35</v>
@@ -7656,7 +7666,7 @@
         <v>1</v>
       </c>
       <c r="W247" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="X247" t="s">
         <v>37</v>
@@ -7667,7 +7677,7 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B248" t="s">
         <v>33</v>
@@ -7679,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="W248" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X248" t="s">
         <v>37</v>
@@ -7690,7 +7700,7 @@
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B249" t="s">
         <v>33</v>
@@ -7702,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="W249" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X249" t="s">
         <v>37</v>
@@ -7713,7 +7723,7 @@
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B250" t="s">
         <v>33</v>
@@ -7725,7 +7735,7 @@
         <v>1</v>
       </c>
       <c r="W250" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X250" t="s">
         <v>37</v>
@@ -7736,7 +7746,7 @@
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B251" t="s">
         <v>33</v>
@@ -7748,7 +7758,7 @@
         <v>1</v>
       </c>
       <c r="W251" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X251" t="s">
         <v>37</v>
@@ -7759,7 +7769,7 @@
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B252" t="s">
         <v>33</v>
@@ -7771,7 +7781,7 @@
         <v>1</v>
       </c>
       <c r="W252" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X252" t="s">
         <v>37</v>
@@ -7782,7 +7792,7 @@
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B253" t="s">
         <v>33</v>
@@ -7794,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="W253" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X253" t="s">
         <v>37</v>
@@ -7805,15 +7815,30 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B254" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E254" t="s">
+        <v>35</v>
+      </c>
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="W254" t="s">
+        <v>50</v>
+      </c>
+      <c r="X254" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B255" t="s">
         <v>33</v>
@@ -7825,7 +7850,7 @@
         <v>1</v>
       </c>
       <c r="W255" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X255" t="s">
         <v>37</v>
@@ -7836,7 +7861,7 @@
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B256" t="s">
         <v>33</v>
@@ -7848,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="W256" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X256" t="s">
         <v>37</v>
@@ -7859,7 +7884,7 @@
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B257" t="s">
         <v>33</v>
@@ -7871,7 +7896,7 @@
         <v>1</v>
       </c>
       <c r="W257" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X257" t="s">
         <v>37</v>
@@ -7882,30 +7907,15 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B258" t="s">
-        <v>33</v>
-      </c>
-      <c r="E258" t="s">
-        <v>35</v>
-      </c>
-      <c r="M258">
-        <v>1</v>
-      </c>
-      <c r="W258" t="s">
-        <v>36</v>
-      </c>
-      <c r="X258" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y258" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B259" t="s">
         <v>33</v>
@@ -7928,7 +7938,7 @@
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B260" t="s">
         <v>33</v>
@@ -7951,7 +7961,7 @@
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B261" t="s">
         <v>33</v>
@@ -7974,7 +7984,7 @@
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B262" t="s">
         <v>33</v>
@@ -7997,7 +8007,7 @@
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B263" t="s">
         <v>33</v>
@@ -8020,7 +8030,7 @@
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B264" t="s">
         <v>33</v>
@@ -8043,7 +8053,7 @@
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B265" t="s">
         <v>33</v>
@@ -8066,7 +8076,7 @@
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B266" t="s">
         <v>33</v>
@@ -8089,7 +8099,7 @@
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B267" t="s">
         <v>33</v>
@@ -8112,7 +8122,7 @@
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B268" t="s">
         <v>33</v>
@@ -8135,7 +8145,7 @@
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B269" t="s">
         <v>33</v>
@@ -8158,7 +8168,7 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B270" t="s">
         <v>33</v>
@@ -8181,7 +8191,7 @@
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B271" t="s">
         <v>33</v>
@@ -8204,7 +8214,7 @@
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B272" t="s">
         <v>33</v>
@@ -8227,7 +8237,7 @@
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B273" t="s">
         <v>33</v>
@@ -8250,7 +8260,7 @@
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B274" t="s">
         <v>33</v>
@@ -8273,7 +8283,7 @@
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B275" t="s">
         <v>33</v>
@@ -8296,7 +8306,7 @@
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B276" t="s">
         <v>33</v>
@@ -8319,7 +8329,7 @@
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B277" t="s">
         <v>33</v>
@@ -8342,7 +8352,7 @@
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B278" t="s">
         <v>33</v>
@@ -8365,7 +8375,7 @@
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B279" t="s">
         <v>33</v>
@@ -8388,7 +8398,7 @@
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B280" t="s">
         <v>33</v>
@@ -8411,7 +8421,7 @@
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B281" t="s">
         <v>33</v>
@@ -8434,7 +8444,7 @@
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B282" t="s">
         <v>33</v>
@@ -8457,7 +8467,7 @@
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B283" t="s">
         <v>33</v>
@@ -8480,7 +8490,7 @@
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B284" t="s">
         <v>33</v>
@@ -8503,7 +8513,7 @@
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B285" t="s">
         <v>33</v>
@@ -8526,7 +8536,7 @@
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B286" t="s">
         <v>33</v>
@@ -8538,7 +8548,7 @@
         <v>1</v>
       </c>
       <c r="W286" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="X286" t="s">
         <v>37</v>
@@ -8549,7 +8559,7 @@
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B287" t="s">
         <v>33</v>
@@ -8572,7 +8582,7 @@
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B288" t="s">
         <v>33</v>
@@ -8590,6 +8600,121 @@
         <v>37</v>
       </c>
       <c r="Y288" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>328</v>
+      </c>
+      <c r="B289" t="s">
+        <v>33</v>
+      </c>
+      <c r="E289" t="s">
+        <v>35</v>
+      </c>
+      <c r="M289">
+        <v>1</v>
+      </c>
+      <c r="W289" t="s">
+        <v>36</v>
+      </c>
+      <c r="X289" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>329</v>
+      </c>
+      <c r="B290" t="s">
+        <v>33</v>
+      </c>
+      <c r="E290" t="s">
+        <v>35</v>
+      </c>
+      <c r="M290">
+        <v>1</v>
+      </c>
+      <c r="W290" t="s">
+        <v>36</v>
+      </c>
+      <c r="X290" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>330</v>
+      </c>
+      <c r="B291" t="s">
+        <v>33</v>
+      </c>
+      <c r="E291" t="s">
+        <v>35</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="W291" t="s">
+        <v>263</v>
+      </c>
+      <c r="X291" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>331</v>
+      </c>
+      <c r="B292" t="s">
+        <v>33</v>
+      </c>
+      <c r="E292" t="s">
+        <v>35</v>
+      </c>
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="W292" t="s">
+        <v>263</v>
+      </c>
+      <c r="X292" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>332</v>
+      </c>
+      <c r="B293" t="s">
+        <v>33</v>
+      </c>
+      <c r="E293" t="s">
+        <v>35</v>
+      </c>
+      <c r="M293">
+        <v>1</v>
+      </c>
+      <c r="W293" t="s">
+        <v>263</v>
+      </c>
+      <c r="X293" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y293" t="s">
         <v>38</v>
       </c>
     </row>

--- a/python_visiaul/owner.xlsx
+++ b/python_visiaul/owner.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.174.132\nxf32270\Misc_demo\python_visiaul\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.174.135\nxf32270\Misc_demo\python_visiaul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6CE07F4-058E-4FF4-995F-CDBEB7CB2A89}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9596AF88-7AED-4EFB-8A14-16183F9E2889}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="SYS_BOOT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="422">
   <si>
     <t>NAME</t>
   </si>
@@ -700,6 +700,9 @@
     <t>Single_Internal-USDHC2_eMMC44_8bit_DDR_2MB_Data_Corrupt</t>
   </si>
   <si>
+    <t>Single_Internal-USDHC2_emmc44-8bit-DDR-High-boot1-SND_boot2</t>
+  </si>
+  <si>
     <t>Single_Internal-USDHC2_eMMC44_8bit_DDR_SND_8MB_Data_Corrupt</t>
   </si>
   <si>
@@ -838,6 +841,9 @@
     <t>Serial_Download-USB0_TRIM</t>
   </si>
   <si>
+    <t>Serial_Download-USB0_UID</t>
+  </si>
+  <si>
     <t>Boot device unit test</t>
   </si>
   <si>
@@ -859,6 +865,9 @@
     <t>UT-FlexSPI0_NOR_Quad_TEST</t>
   </si>
   <si>
+    <t>UT-FlexSPI0_NAND_TEST</t>
+  </si>
+  <si>
     <t>UT-FlexSPI2_NAND_TEST</t>
   </si>
   <si>
@@ -1019,6 +1028,264 @@
   </si>
   <si>
     <t>FUSE_TEST-Serial_Download-USB1_SDP_DISABLE_USEUSB0</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-NMI0</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-NMI1</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable-FAB</t>
+  </si>
+  <si>
+    <t>FlexSPI NOR Primary boot, LC is FAB</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable-NXP_FR</t>
+  </si>
+  <si>
+    <t>FlexSPI NOR Primary boot, LC is NXP FR</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable-NXP_PROV</t>
+  </si>
+  <si>
+    <t>FlexSPI NOR Primary boot, LC is NXP Provision</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-noack-AZURE_Enable-FAB</t>
+  </si>
+  <si>
+    <t>EMMC (8bit, DDR high speed) Primary boot,  fast boot mode enabled, ack disabled, boot image in user patiition  LC is FAB</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-noack-AZURE_Enable-NXP_FR</t>
+  </si>
+  <si>
+    <t>EMMC (8bit, DDR high speed) Primary boot,  fast boot mode enabled, ack disabled, boot image in user patiition  LC is NXP FR</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-noack-AZURE_Enable-NXP_PROV</t>
+  </si>
+  <si>
+    <t>EMMC (8bit, DDR high speed) Primary boot,  fast boot mode enabled, ack disabled, boot image in user patiition  LC is NXP Provision</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-AZURE_Enable-FAB</t>
+  </si>
+  <si>
+    <t>Boot mode is USB serial download,  LC is FAB</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-AZURE_Enable-NXP_FR</t>
+  </si>
+  <si>
+    <t>Boot mode is USB serial download,  LC is NXP FR</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-AZURE_Enable-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Boot mode is USB serial download,  LC is NXP Provision</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>FlexSPI NOR Primary boot, LC is OEM closed</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable-OEM_OPEN</t>
+  </si>
+  <si>
+    <t>FlexSPI NOR Primary boot, LC is OEM Open</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>FlexSPI NOR Primary boot, LC is OEM Locked</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR-AZURE_Enable-OEM_FR</t>
+  </si>
+  <si>
+    <t>FlexSPI NOR Primary boot, LC is OEM FR</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR_SND_4MB-AZURE_Enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FlexSPI NOR Primary boot fails, boot from the 2nd image, the 2nd image offset (relative to device top address) is 4MB.  </t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR_SND_2MB-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>FlexSPI NOR Primary boot fails, boot from the 2nd image, the 2nd image offset (relative to device top address) is 2MB.</t>
+  </si>
+  <si>
+    <t>Single_Internal-FlexSPI2_NOR_SND_8MB-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>FlexSPI NOR Primary boot fails, boot from the 2nd image, the 2nd image offset (relative to device top address) is 8MB.</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-BT2-noack-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>EMMC (8bit, DDR high speed) Primary boot,  fast boot mode enabled, ack disabled, boot image in boot patiition2  LC is OEM Closed</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-BT1-ack-AZURE_Enable-OEM_OPEN</t>
+  </si>
+  <si>
+    <t>EMMC (8bit, DDR high speed) Primary boot,  fast boot mode enabled, ack, boot image in boot patiition1  LC is OEM Open</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-noack-AZURE_Enable-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>EMMC (8bit, DDR high speed) Primary boot,  fast boot mode enabled, ack disabled, boot image in user patiition  LC is OEM locked</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-noack-AZURE_Enable-OEM_FR</t>
+  </si>
+  <si>
+    <t>EMMC (8bit, DDR high speed) Primary boot,  fast boot mode enabled, ack disabled, boot image in user patiition  LC is OEM FR</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-noack_SND_4MB-AZURE_Enable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMMC Primary boot fails, boot from the 2nd image, both primary and secondary boot image in user partition, the 2nd image offset (relative to device top address) is 4MB.  </t>
+  </si>
+  <si>
+    <t>EMMC (8bit, DDR high speed) Primary boot,  fast boot mode enabled, ack disabled, boot image in user patiition  LC is NXP PROV</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-BT1-ack_SND-BT2-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>EMMC Primary boot fails, boot from the 2nd image, primary boot image in boot partition1, secondary boot image in boot partition2.</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc-8bit-DDR-High-FB-BT2-ack_SND-BT1-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>EMMC Primary boot fails, boot from the 2nd image, primary boot image in boot partition2, secondary boot image in boot partition1.</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-4bit-High-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>SD (4bit, high speed) Primary boot,  LC is OEM closed</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-4bit-High_SND_4MB-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>SD (4bit, high speed) Primary boot fails, the 2nd image offset (relative to device top address) is 4MB.</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC2_emmc-8bit-DDR-High-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>EMMC (8bit, DDR high speed) Primary boot, boot image in user patiition  LC is OEM locked</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC2_emmc-8bit-DDR-High_SND_4MB-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-Recovery-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>Both priamry and secondary boot fail, boot via SD recovery boot</t>
+  </si>
+  <si>
+    <t>Single_Internal-LPSPI3_NOR-Recovery-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>Both priamry and secondary boot fail, boot via LPSPI NOR recovery boot</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>Boot mode is USB serial download,  LC is OEM Closed</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-AZURE_Enable-OEM_OPEN</t>
+  </si>
+  <si>
+    <t>Boot mode is USB serial download,  LC is OEM Opend</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-AZURE_Enable-OEM_LOCKED</t>
+  </si>
+  <si>
+    <t>Boot mode is USB serial download,  LC is OEM Locked</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-AZURE_Enable-OEM_FR</t>
+  </si>
+  <si>
+    <t>Boot mode is USB serial download,  LC is OEM FR</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-FlexSPI2_NOR_PRI_FAIL-SND_FAIL-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>Flexspi Primary, secondary and recovery boot fail, boot via USB serial download</t>
+  </si>
+  <si>
+    <t>Serial_Download-USB0-EMMC_PRI_FAIL-SND_FAIL-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>EMMC Primary, secondary and recovery boot fail, boot via USB serial download</t>
+  </si>
+  <si>
+    <t>Dual_Internal_Force-CM33_USB_SDP_ONDEMAND</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_USB_SDP_ONDEMAND</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-SND_4M-A35_USDHC0_SD-AZURE_ENABLE-FAB</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-SND_4M-A35_USDHC0_SD-AZURE_ENABLE-NXP_FR</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-SND_4M-A35_USDHC0_SD-AZURE_ENABLE-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-4bit-High-AZURE_Enable-SND_4MB-FAB</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-4bit-High-AZURE_Enable-SND_4MB-NXP_PROV</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC1_SD-4bit-High-AZURE_Enable-SND_4MB-NXP_FR</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC2_emmc-8bit-DDR-High_SND_128M-AZURE_Enable</t>
+  </si>
+  <si>
+    <t>Dual_Internal-CM33_FlexSPI0_NOR-A35_USDHC0_SD-M33_ROMAPI</t>
+  </si>
+  <si>
+    <t>Single_Internal-USDHC0_emmc44-8bit-DDR-A35_ROMAPI</t>
+  </si>
+  <si>
+    <t>UT-FlexSPI2_NOR_Error_Branch_TEST</t>
+  </si>
+  <si>
+    <t>UT-FlexSPI0_NOR_Error_Branch_TEST</t>
+  </si>
+  <si>
+    <t>UT-Exception</t>
   </si>
 </sst>
 </file>
@@ -1970,7 +2237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD293"/>
+  <dimension ref="A1:AD350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6377,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="W189" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X189" t="s">
         <v>37</v>
@@ -6584,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="W198" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="X198" t="s">
         <v>37</v>
@@ -6768,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="W206" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X206" t="s">
         <v>37</v>
@@ -7035,7 +7302,22 @@
         <v>255</v>
       </c>
       <c r="B218" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E218" t="s">
+        <v>35</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="W218" t="s">
+        <v>36</v>
+      </c>
+      <c r="X218" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.2">
@@ -7043,22 +7325,7 @@
         <v>256</v>
       </c>
       <c r="B219" t="s">
-        <v>33</v>
-      </c>
-      <c r="E219" t="s">
-        <v>35</v>
-      </c>
-      <c r="M219">
-        <v>1</v>
-      </c>
-      <c r="W219" t="s">
-        <v>50</v>
-      </c>
-      <c r="X219" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y219" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.2">
@@ -7158,7 +7425,22 @@
         <v>261</v>
       </c>
       <c r="B224" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E224" t="s">
+        <v>35</v>
+      </c>
+      <c r="M224">
+        <v>1</v>
+      </c>
+      <c r="W224" t="s">
+        <v>50</v>
+      </c>
+      <c r="X224" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.2">
@@ -7166,39 +7448,24 @@
         <v>262</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
-      </c>
-      <c r="E225" t="s">
-        <v>35</v>
-      </c>
-      <c r="M225">
-        <v>1</v>
-      </c>
-      <c r="W225" t="s">
-        <v>263</v>
-      </c>
-      <c r="X225" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y225" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>263</v>
+      </c>
+      <c r="B226" t="s">
+        <v>33</v>
+      </c>
+      <c r="E226" t="s">
+        <v>35</v>
+      </c>
+      <c r="M226">
+        <v>1</v>
+      </c>
+      <c r="W226" t="s">
         <v>264</v>
-      </c>
-      <c r="B226" t="s">
-        <v>33</v>
-      </c>
-      <c r="E226" t="s">
-        <v>35</v>
-      </c>
-      <c r="M226">
-        <v>1</v>
-      </c>
-      <c r="W226" t="s">
-        <v>263</v>
       </c>
       <c r="X226" t="s">
         <v>37</v>
@@ -7221,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="W227" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X227" t="s">
         <v>37</v>
@@ -7244,7 +7511,7 @@
         <v>1</v>
       </c>
       <c r="W228" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X228" t="s">
         <v>37</v>
@@ -7267,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="W229" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X229" t="s">
         <v>37</v>
@@ -7290,7 +7557,7 @@
         <v>1</v>
       </c>
       <c r="W230" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X230" t="s">
         <v>37</v>
@@ -7313,7 +7580,7 @@
         <v>1</v>
       </c>
       <c r="W231" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X231" t="s">
         <v>37</v>
@@ -7336,7 +7603,7 @@
         <v>1</v>
       </c>
       <c r="W232" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X232" t="s">
         <v>37</v>
@@ -7359,7 +7626,7 @@
         <v>1</v>
       </c>
       <c r="W233" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X233" t="s">
         <v>37</v>
@@ -7373,7 +7640,22 @@
         <v>272</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E234" t="s">
+        <v>35</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="W234" t="s">
+        <v>264</v>
+      </c>
+      <c r="X234" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.2">
@@ -7390,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="W235" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="X235" t="s">
         <v>37</v>
@@ -7404,22 +7686,7 @@
         <v>274</v>
       </c>
       <c r="B236" t="s">
-        <v>33</v>
-      </c>
-      <c r="E236" t="s">
-        <v>35</v>
-      </c>
-      <c r="M236">
-        <v>1</v>
-      </c>
-      <c r="W236" t="s">
-        <v>36</v>
-      </c>
-      <c r="X236" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y236" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.2">
@@ -7505,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="W240" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="X240" t="s">
         <v>37</v>
@@ -7551,7 +7818,7 @@
         <v>1</v>
       </c>
       <c r="W242" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="X242" t="s">
         <v>37</v>
@@ -7657,7 +7924,7 @@
         <v>285</v>
       </c>
       <c r="B247" t="s">
-        <v>286</v>
+        <v>33</v>
       </c>
       <c r="E247" t="s">
         <v>35</v>
@@ -7666,7 +7933,7 @@
         <v>1</v>
       </c>
       <c r="W247" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="X247" t="s">
         <v>37</v>
@@ -7677,7 +7944,7 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B248" t="s">
         <v>33</v>
@@ -7689,7 +7956,7 @@
         <v>1</v>
       </c>
       <c r="W248" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="X248" t="s">
         <v>37</v>
@@ -7700,7 +7967,7 @@
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B249" t="s">
         <v>33</v>
@@ -7712,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="W249" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="X249" t="s">
         <v>37</v>
@@ -7723,11 +7990,11 @@
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
+        <v>288</v>
+      </c>
+      <c r="B250" t="s">
         <v>289</v>
       </c>
-      <c r="B250" t="s">
-        <v>33</v>
-      </c>
       <c r="E250" t="s">
         <v>35</v>
       </c>
@@ -7735,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="W250" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="X250" t="s">
         <v>37</v>
@@ -7910,7 +8177,22 @@
         <v>297</v>
       </c>
       <c r="B258" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="E258" t="s">
+        <v>35</v>
+      </c>
+      <c r="M258">
+        <v>1</v>
+      </c>
+      <c r="W258" t="s">
+        <v>50</v>
+      </c>
+      <c r="X258" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.2">
@@ -7927,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="W259" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X259" t="s">
         <v>37</v>
@@ -7950,7 +8232,7 @@
         <v>1</v>
       </c>
       <c r="W260" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="X260" t="s">
         <v>37</v>
@@ -7964,22 +8246,7 @@
         <v>300</v>
       </c>
       <c r="B261" t="s">
-        <v>33</v>
-      </c>
-      <c r="E261" t="s">
-        <v>35</v>
-      </c>
-      <c r="M261">
-        <v>1</v>
-      </c>
-      <c r="W261" t="s">
-        <v>36</v>
-      </c>
-      <c r="X261" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y261" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.2">
@@ -8548,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="W286" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="X286" t="s">
         <v>37</v>
@@ -8617,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="W289" t="s">
-        <v>36</v>
+        <v>264</v>
       </c>
       <c r="X289" t="s">
         <v>37</v>
@@ -8663,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="W291" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="X291" t="s">
         <v>37</v>
@@ -8686,7 +8953,7 @@
         <v>1</v>
       </c>
       <c r="W292" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="X292" t="s">
         <v>37</v>
@@ -8709,12 +8976,1479 @@
         <v>1</v>
       </c>
       <c r="W293" t="s">
-        <v>263</v>
+        <v>36</v>
       </c>
       <c r="X293" t="s">
         <v>37</v>
       </c>
       <c r="Y293" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>333</v>
+      </c>
+      <c r="B294" t="s">
+        <v>33</v>
+      </c>
+      <c r="E294" t="s">
+        <v>35</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="W294" t="s">
+        <v>264</v>
+      </c>
+      <c r="X294" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>334</v>
+      </c>
+      <c r="B295" t="s">
+        <v>33</v>
+      </c>
+      <c r="E295" t="s">
+        <v>35</v>
+      </c>
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="W295" t="s">
+        <v>264</v>
+      </c>
+      <c r="X295" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>335</v>
+      </c>
+      <c r="B296" t="s">
+        <v>33</v>
+      </c>
+      <c r="E296" t="s">
+        <v>35</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="W296" t="s">
+        <v>264</v>
+      </c>
+      <c r="X296" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y296" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>336</v>
+      </c>
+      <c r="B297" t="s">
+        <v>33</v>
+      </c>
+      <c r="E297" t="s">
+        <v>35</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="W297" t="s">
+        <v>36</v>
+      </c>
+      <c r="X297" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>337</v>
+      </c>
+      <c r="B298" t="s">
+        <v>33</v>
+      </c>
+      <c r="E298" t="s">
+        <v>35</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="W298" t="s">
+        <v>36</v>
+      </c>
+      <c r="X298" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>338</v>
+      </c>
+      <c r="B299" t="s">
+        <v>33</v>
+      </c>
+      <c r="C299" t="s">
+        <v>339</v>
+      </c>
+      <c r="E299" t="s">
+        <v>35</v>
+      </c>
+      <c r="M299">
+        <v>1</v>
+      </c>
+      <c r="W299" t="s">
+        <v>36</v>
+      </c>
+      <c r="X299" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>340</v>
+      </c>
+      <c r="B300" t="s">
+        <v>33</v>
+      </c>
+      <c r="C300" t="s">
+        <v>341</v>
+      </c>
+      <c r="E300" t="s">
+        <v>35</v>
+      </c>
+      <c r="M300">
+        <v>1</v>
+      </c>
+      <c r="W300" t="s">
+        <v>36</v>
+      </c>
+      <c r="X300" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>342</v>
+      </c>
+      <c r="B301" t="s">
+        <v>33</v>
+      </c>
+      <c r="C301" t="s">
+        <v>343</v>
+      </c>
+      <c r="E301" t="s">
+        <v>35</v>
+      </c>
+      <c r="M301">
+        <v>1</v>
+      </c>
+      <c r="W301" t="s">
+        <v>36</v>
+      </c>
+      <c r="X301" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y301" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>344</v>
+      </c>
+      <c r="B302" t="s">
+        <v>33</v>
+      </c>
+      <c r="C302" t="s">
+        <v>345</v>
+      </c>
+      <c r="E302" t="s">
+        <v>35</v>
+      </c>
+      <c r="M302">
+        <v>1</v>
+      </c>
+      <c r="W302" t="s">
+        <v>36</v>
+      </c>
+      <c r="X302" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y302" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>346</v>
+      </c>
+      <c r="B303" t="s">
+        <v>33</v>
+      </c>
+      <c r="C303" t="s">
+        <v>347</v>
+      </c>
+      <c r="E303" t="s">
+        <v>35</v>
+      </c>
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="W303" t="s">
+        <v>36</v>
+      </c>
+      <c r="X303" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y303" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>348</v>
+      </c>
+      <c r="B304" t="s">
+        <v>33</v>
+      </c>
+      <c r="C304" t="s">
+        <v>349</v>
+      </c>
+      <c r="E304" t="s">
+        <v>35</v>
+      </c>
+      <c r="M304">
+        <v>1</v>
+      </c>
+      <c r="W304" t="s">
+        <v>36</v>
+      </c>
+      <c r="X304" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y304" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>350</v>
+      </c>
+      <c r="B305" t="s">
+        <v>33</v>
+      </c>
+      <c r="C305" t="s">
+        <v>351</v>
+      </c>
+      <c r="E305" t="s">
+        <v>35</v>
+      </c>
+      <c r="M305">
+        <v>1</v>
+      </c>
+      <c r="W305" t="s">
+        <v>36</v>
+      </c>
+      <c r="X305" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y305" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>352</v>
+      </c>
+      <c r="B306" t="s">
+        <v>33</v>
+      </c>
+      <c r="C306" t="s">
+        <v>353</v>
+      </c>
+      <c r="E306" t="s">
+        <v>35</v>
+      </c>
+      <c r="M306">
+        <v>1</v>
+      </c>
+      <c r="W306" t="s">
+        <v>36</v>
+      </c>
+      <c r="X306" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y306" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>354</v>
+      </c>
+      <c r="B307" t="s">
+        <v>33</v>
+      </c>
+      <c r="C307" t="s">
+        <v>355</v>
+      </c>
+      <c r="E307" t="s">
+        <v>35</v>
+      </c>
+      <c r="M307">
+        <v>1</v>
+      </c>
+      <c r="W307" t="s">
+        <v>36</v>
+      </c>
+      <c r="X307" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y307" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>356</v>
+      </c>
+      <c r="B308" t="s">
+        <v>33</v>
+      </c>
+      <c r="C308" t="s">
+        <v>357</v>
+      </c>
+      <c r="E308" t="s">
+        <v>35</v>
+      </c>
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="W308" t="s">
+        <v>36</v>
+      </c>
+      <c r="X308" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y308" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>358</v>
+      </c>
+      <c r="B309" t="s">
+        <v>33</v>
+      </c>
+      <c r="C309" t="s">
+        <v>359</v>
+      </c>
+      <c r="E309" t="s">
+        <v>35</v>
+      </c>
+      <c r="M309">
+        <v>1</v>
+      </c>
+      <c r="W309" t="s">
+        <v>36</v>
+      </c>
+      <c r="X309" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y309" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>360</v>
+      </c>
+      <c r="B310" t="s">
+        <v>33</v>
+      </c>
+      <c r="C310" t="s">
+        <v>361</v>
+      </c>
+      <c r="E310" t="s">
+        <v>35</v>
+      </c>
+      <c r="M310">
+        <v>1</v>
+      </c>
+      <c r="W310" t="s">
+        <v>36</v>
+      </c>
+      <c r="X310" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y310" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>362</v>
+      </c>
+      <c r="B311" t="s">
+        <v>33</v>
+      </c>
+      <c r="C311" t="s">
+        <v>363</v>
+      </c>
+      <c r="E311" t="s">
+        <v>35</v>
+      </c>
+      <c r="M311">
+        <v>1</v>
+      </c>
+      <c r="W311" t="s">
+        <v>36</v>
+      </c>
+      <c r="X311" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y311" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>364</v>
+      </c>
+      <c r="B312" t="s">
+        <v>33</v>
+      </c>
+      <c r="C312" t="s">
+        <v>365</v>
+      </c>
+      <c r="E312" t="s">
+        <v>35</v>
+      </c>
+      <c r="M312">
+        <v>1</v>
+      </c>
+      <c r="W312" t="s">
+        <v>36</v>
+      </c>
+      <c r="X312" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y312" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>366</v>
+      </c>
+      <c r="B313" t="s">
+        <v>33</v>
+      </c>
+      <c r="C313" t="s">
+        <v>367</v>
+      </c>
+      <c r="E313" t="s">
+        <v>35</v>
+      </c>
+      <c r="M313">
+        <v>1</v>
+      </c>
+      <c r="W313" t="s">
+        <v>36</v>
+      </c>
+      <c r="X313" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y313" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>368</v>
+      </c>
+      <c r="B314" t="s">
+        <v>33</v>
+      </c>
+      <c r="C314" t="s">
+        <v>369</v>
+      </c>
+      <c r="E314" t="s">
+        <v>35</v>
+      </c>
+      <c r="M314">
+        <v>1</v>
+      </c>
+      <c r="W314" t="s">
+        <v>50</v>
+      </c>
+      <c r="X314" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y314" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>370</v>
+      </c>
+      <c r="B315" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315" t="s">
+        <v>371</v>
+      </c>
+      <c r="E315" t="s">
+        <v>35</v>
+      </c>
+      <c r="M315">
+        <v>1</v>
+      </c>
+      <c r="W315" t="s">
+        <v>36</v>
+      </c>
+      <c r="X315" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y315" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>372</v>
+      </c>
+      <c r="B316" t="s">
+        <v>33</v>
+      </c>
+      <c r="C316" t="s">
+        <v>373</v>
+      </c>
+      <c r="E316" t="s">
+        <v>35</v>
+      </c>
+      <c r="M316">
+        <v>1</v>
+      </c>
+      <c r="W316" t="s">
+        <v>36</v>
+      </c>
+      <c r="X316" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y316" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>374</v>
+      </c>
+      <c r="B317" t="s">
+        <v>33</v>
+      </c>
+      <c r="C317" t="s">
+        <v>375</v>
+      </c>
+      <c r="E317" t="s">
+        <v>35</v>
+      </c>
+      <c r="M317">
+        <v>1</v>
+      </c>
+      <c r="W317" t="s">
+        <v>36</v>
+      </c>
+      <c r="X317" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y317" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>376</v>
+      </c>
+      <c r="B318" t="s">
+        <v>33</v>
+      </c>
+      <c r="C318" t="s">
+        <v>377</v>
+      </c>
+      <c r="E318" t="s">
+        <v>35</v>
+      </c>
+      <c r="M318">
+        <v>1</v>
+      </c>
+      <c r="W318" t="s">
+        <v>36</v>
+      </c>
+      <c r="X318" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y318" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>378</v>
+      </c>
+      <c r="B319" t="s">
+        <v>33</v>
+      </c>
+      <c r="C319" t="s">
+        <v>379</v>
+      </c>
+      <c r="E319" t="s">
+        <v>35</v>
+      </c>
+      <c r="M319">
+        <v>1</v>
+      </c>
+      <c r="W319" t="s">
+        <v>36</v>
+      </c>
+      <c r="X319" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y319" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>344</v>
+      </c>
+      <c r="B320" t="s">
+        <v>33</v>
+      </c>
+      <c r="C320" t="s">
+        <v>345</v>
+      </c>
+      <c r="E320" t="s">
+        <v>35</v>
+      </c>
+      <c r="M320">
+        <v>1</v>
+      </c>
+      <c r="W320" t="s">
+        <v>36</v>
+      </c>
+      <c r="X320" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y320" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>346</v>
+      </c>
+      <c r="B321" t="s">
+        <v>33</v>
+      </c>
+      <c r="C321" t="s">
+        <v>347</v>
+      </c>
+      <c r="E321" t="s">
+        <v>35</v>
+      </c>
+      <c r="M321">
+        <v>1</v>
+      </c>
+      <c r="W321" t="s">
+        <v>36</v>
+      </c>
+      <c r="X321" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y321" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>348</v>
+      </c>
+      <c r="B322" t="s">
+        <v>33</v>
+      </c>
+      <c r="C322" t="s">
+        <v>380</v>
+      </c>
+      <c r="E322" t="s">
+        <v>35</v>
+      </c>
+      <c r="M322">
+        <v>1</v>
+      </c>
+      <c r="W322" t="s">
+        <v>50</v>
+      </c>
+      <c r="X322" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y322" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>381</v>
+      </c>
+      <c r="B323" t="s">
+        <v>33</v>
+      </c>
+      <c r="C323" t="s">
+        <v>382</v>
+      </c>
+      <c r="E323" t="s">
+        <v>35</v>
+      </c>
+      <c r="M323">
+        <v>1</v>
+      </c>
+      <c r="W323" t="s">
+        <v>36</v>
+      </c>
+      <c r="X323" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y323" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>383</v>
+      </c>
+      <c r="B324" t="s">
+        <v>33</v>
+      </c>
+      <c r="C324" t="s">
+        <v>384</v>
+      </c>
+      <c r="E324" t="s">
+        <v>35</v>
+      </c>
+      <c r="M324">
+        <v>1</v>
+      </c>
+      <c r="W324" t="s">
+        <v>36</v>
+      </c>
+      <c r="X324" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y324" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>385</v>
+      </c>
+      <c r="B325" t="s">
+        <v>33</v>
+      </c>
+      <c r="C325" t="s">
+        <v>386</v>
+      </c>
+      <c r="E325" t="s">
+        <v>35</v>
+      </c>
+      <c r="M325">
+        <v>1</v>
+      </c>
+      <c r="W325" t="s">
+        <v>36</v>
+      </c>
+      <c r="X325" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y325" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>387</v>
+      </c>
+      <c r="B326" t="s">
+        <v>33</v>
+      </c>
+      <c r="C326" t="s">
+        <v>388</v>
+      </c>
+      <c r="E326" t="s">
+        <v>35</v>
+      </c>
+      <c r="M326">
+        <v>1</v>
+      </c>
+      <c r="W326" t="s">
+        <v>36</v>
+      </c>
+      <c r="X326" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>389</v>
+      </c>
+      <c r="B327" t="s">
+        <v>33</v>
+      </c>
+      <c r="C327" t="s">
+        <v>390</v>
+      </c>
+      <c r="E327" t="s">
+        <v>35</v>
+      </c>
+      <c r="M327">
+        <v>1</v>
+      </c>
+      <c r="W327" t="s">
+        <v>36</v>
+      </c>
+      <c r="X327" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y327" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>391</v>
+      </c>
+      <c r="B328" t="s">
+        <v>33</v>
+      </c>
+      <c r="C328" t="s">
+        <v>379</v>
+      </c>
+      <c r="E328" t="s">
+        <v>35</v>
+      </c>
+      <c r="M328">
+        <v>1</v>
+      </c>
+      <c r="W328" t="s">
+        <v>36</v>
+      </c>
+      <c r="X328" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y328" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>392</v>
+      </c>
+      <c r="B329" t="s">
+        <v>33</v>
+      </c>
+      <c r="C329" t="s">
+        <v>393</v>
+      </c>
+      <c r="E329" t="s">
+        <v>35</v>
+      </c>
+      <c r="M329">
+        <v>1</v>
+      </c>
+      <c r="W329" t="s">
+        <v>36</v>
+      </c>
+      <c r="X329" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y329" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>394</v>
+      </c>
+      <c r="B330" t="s">
+        <v>33</v>
+      </c>
+      <c r="C330" t="s">
+        <v>395</v>
+      </c>
+      <c r="E330" t="s">
+        <v>35</v>
+      </c>
+      <c r="M330">
+        <v>1</v>
+      </c>
+      <c r="W330" t="s">
+        <v>36</v>
+      </c>
+      <c r="X330" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y330" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>396</v>
+      </c>
+      <c r="B331" t="s">
+        <v>33</v>
+      </c>
+      <c r="C331" t="s">
+        <v>397</v>
+      </c>
+      <c r="E331" t="s">
+        <v>35</v>
+      </c>
+      <c r="M331">
+        <v>1</v>
+      </c>
+      <c r="W331" t="s">
+        <v>264</v>
+      </c>
+      <c r="X331" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y331" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>398</v>
+      </c>
+      <c r="B332" t="s">
+        <v>33</v>
+      </c>
+      <c r="C332" t="s">
+        <v>399</v>
+      </c>
+      <c r="E332" t="s">
+        <v>35</v>
+      </c>
+      <c r="M332">
+        <v>1</v>
+      </c>
+      <c r="W332" t="s">
+        <v>36</v>
+      </c>
+      <c r="X332" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y332" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>400</v>
+      </c>
+      <c r="B333" t="s">
+        <v>33</v>
+      </c>
+      <c r="C333" t="s">
+        <v>401</v>
+      </c>
+      <c r="E333" t="s">
+        <v>35</v>
+      </c>
+      <c r="M333">
+        <v>1</v>
+      </c>
+      <c r="W333" t="s">
+        <v>36</v>
+      </c>
+      <c r="X333" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y333" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>402</v>
+      </c>
+      <c r="B334" t="s">
+        <v>33</v>
+      </c>
+      <c r="C334" t="s">
+        <v>403</v>
+      </c>
+      <c r="E334" t="s">
+        <v>35</v>
+      </c>
+      <c r="M334">
+        <v>1</v>
+      </c>
+      <c r="W334" t="s">
+        <v>36</v>
+      </c>
+      <c r="X334" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y334" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>404</v>
+      </c>
+      <c r="B335" t="s">
+        <v>33</v>
+      </c>
+      <c r="C335" t="s">
+        <v>405</v>
+      </c>
+      <c r="E335" t="s">
+        <v>35</v>
+      </c>
+      <c r="M335">
+        <v>1</v>
+      </c>
+      <c r="W335" t="s">
+        <v>50</v>
+      </c>
+      <c r="X335" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y335" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>406</v>
+      </c>
+      <c r="B336" t="s">
+        <v>33</v>
+      </c>
+      <c r="C336" t="s">
+        <v>407</v>
+      </c>
+      <c r="E336" t="s">
+        <v>35</v>
+      </c>
+      <c r="M336">
+        <v>1</v>
+      </c>
+      <c r="W336" t="s">
+        <v>50</v>
+      </c>
+      <c r="X336" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y336" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>408</v>
+      </c>
+      <c r="B337" t="s">
+        <v>33</v>
+      </c>
+      <c r="C337" t="s">
+        <v>407</v>
+      </c>
+      <c r="E337" t="s">
+        <v>35</v>
+      </c>
+      <c r="M337">
+        <v>1</v>
+      </c>
+      <c r="W337" t="s">
+        <v>50</v>
+      </c>
+      <c r="X337" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y337" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>409</v>
+      </c>
+      <c r="B338" t="s">
+        <v>33</v>
+      </c>
+      <c r="C338" t="s">
+        <v>407</v>
+      </c>
+      <c r="E338" t="s">
+        <v>35</v>
+      </c>
+      <c r="M338">
+        <v>1</v>
+      </c>
+      <c r="W338" t="s">
+        <v>50</v>
+      </c>
+      <c r="X338" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y338" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>410</v>
+      </c>
+      <c r="B339" t="s">
+        <v>33</v>
+      </c>
+      <c r="C339" t="s">
+        <v>407</v>
+      </c>
+      <c r="E339" t="s">
+        <v>35</v>
+      </c>
+      <c r="M339">
+        <v>1</v>
+      </c>
+      <c r="W339" t="s">
+        <v>50</v>
+      </c>
+      <c r="X339" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y339" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>411</v>
+      </c>
+      <c r="B340" t="s">
+        <v>33</v>
+      </c>
+      <c r="C340" t="s">
+        <v>407</v>
+      </c>
+      <c r="E340" t="s">
+        <v>35</v>
+      </c>
+      <c r="M340">
+        <v>1</v>
+      </c>
+      <c r="W340" t="s">
+        <v>50</v>
+      </c>
+      <c r="X340" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y340" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>412</v>
+      </c>
+      <c r="B341" t="s">
+        <v>33</v>
+      </c>
+      <c r="C341" t="s">
+        <v>407</v>
+      </c>
+      <c r="E341" t="s">
+        <v>35</v>
+      </c>
+      <c r="M341">
+        <v>1</v>
+      </c>
+      <c r="W341" t="s">
+        <v>50</v>
+      </c>
+      <c r="X341" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y341" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>413</v>
+      </c>
+      <c r="B342" t="s">
+        <v>33</v>
+      </c>
+      <c r="C342" t="s">
+        <v>407</v>
+      </c>
+      <c r="E342" t="s">
+        <v>35</v>
+      </c>
+      <c r="M342">
+        <v>1</v>
+      </c>
+      <c r="W342" t="s">
+        <v>50</v>
+      </c>
+      <c r="X342" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y342" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>414</v>
+      </c>
+      <c r="B343" t="s">
+        <v>33</v>
+      </c>
+      <c r="C343" t="s">
+        <v>407</v>
+      </c>
+      <c r="E343" t="s">
+        <v>35</v>
+      </c>
+      <c r="M343">
+        <v>1</v>
+      </c>
+      <c r="W343" t="s">
+        <v>50</v>
+      </c>
+      <c r="X343" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y343" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>415</v>
+      </c>
+      <c r="B344" t="s">
+        <v>33</v>
+      </c>
+      <c r="C344" t="s">
+        <v>407</v>
+      </c>
+      <c r="E344" t="s">
+        <v>35</v>
+      </c>
+      <c r="M344">
+        <v>1</v>
+      </c>
+      <c r="W344" t="s">
+        <v>50</v>
+      </c>
+      <c r="X344" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y344" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>416</v>
+      </c>
+      <c r="B345" t="s">
+        <v>33</v>
+      </c>
+      <c r="C345" t="s">
+        <v>407</v>
+      </c>
+      <c r="E345" t="s">
+        <v>35</v>
+      </c>
+      <c r="M345">
+        <v>1</v>
+      </c>
+      <c r="W345" t="s">
+        <v>50</v>
+      </c>
+      <c r="X345" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y345" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>417</v>
+      </c>
+      <c r="B346" t="s">
+        <v>33</v>
+      </c>
+      <c r="C346" t="s">
+        <v>407</v>
+      </c>
+      <c r="E346" t="s">
+        <v>35</v>
+      </c>
+      <c r="M346">
+        <v>1</v>
+      </c>
+      <c r="W346" t="s">
+        <v>50</v>
+      </c>
+      <c r="X346" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y346" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>418</v>
+      </c>
+      <c r="B347" t="s">
+        <v>33</v>
+      </c>
+      <c r="C347" t="s">
+        <v>407</v>
+      </c>
+      <c r="E347" t="s">
+        <v>35</v>
+      </c>
+      <c r="M347">
+        <v>1</v>
+      </c>
+      <c r="W347" t="s">
+        <v>50</v>
+      </c>
+      <c r="X347" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y347" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>419</v>
+      </c>
+      <c r="B348" t="s">
+        <v>33</v>
+      </c>
+      <c r="C348" t="s">
+        <v>407</v>
+      </c>
+      <c r="E348" t="s">
+        <v>35</v>
+      </c>
+      <c r="M348">
+        <v>1</v>
+      </c>
+      <c r="W348" t="s">
+        <v>50</v>
+      </c>
+      <c r="X348" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y348" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>420</v>
+      </c>
+      <c r="B349" t="s">
+        <v>33</v>
+      </c>
+      <c r="C349" t="s">
+        <v>407</v>
+      </c>
+      <c r="E349" t="s">
+        <v>35</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+      <c r="W349" t="s">
+        <v>50</v>
+      </c>
+      <c r="X349" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y349" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>421</v>
+      </c>
+      <c r="B350" t="s">
+        <v>33</v>
+      </c>
+      <c r="C350" t="s">
+        <v>407</v>
+      </c>
+      <c r="E350" t="s">
+        <v>35</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+      <c r="W350" t="s">
+        <v>50</v>
+      </c>
+      <c r="X350" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y350" t="s">
         <v>38</v>
       </c>
     </row>

--- a/python_visiaul/owner.xlsx
+++ b/python_visiaul/owner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.174.135\nxf32270\Misc_demo\python_visiaul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9596AF88-7AED-4EFB-8A14-16183F9E2889}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2842D7D-3153-4B5A-9C09-47B45B73A401}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="SYS_BOOT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2166" uniqueCount="423">
   <si>
     <t>NAME</t>
   </si>
@@ -1286,6 +1286,9 @@
   </si>
   <si>
     <t>UT-Exception</t>
+  </si>
+  <si>
+    <t>UT-Exception_A35</t>
   </si>
 </sst>
 </file>
@@ -2237,7 +2240,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD350"/>
+  <dimension ref="A1:AD351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10452,6 +10455,32 @@
         <v>38</v>
       </c>
     </row>
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>422</v>
+      </c>
+      <c r="B351" t="s">
+        <v>33</v>
+      </c>
+      <c r="C351" t="s">
+        <v>407</v>
+      </c>
+      <c r="E351" t="s">
+        <v>35</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="W351" t="s">
+        <v>50</v>
+      </c>
+      <c r="X351" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y351" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
